--- a/biology/Botanique/Tillandsia_langsdorfii/Tillandsia_langsdorfii.xlsx
+++ b/biology/Botanique/Tillandsia_langsdorfii/Tillandsia_langsdorfii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia langsdorfii Mez est une plante de la famille des Bromeliaceae, originaire du Brésil.
 Le terme langsdorfii signifie « de Langsdorff » et est une dédicace au collecteur de la plante.
@@ -512,12 +524,14 @@
           <t>Protologue et Type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia langsdorfii Mez in Mart., Fl. Bras. 3(3): 598, n° 20(1894)
-Diagnose originale[1] :
+Diagnose originale :
 « TILLANDSIA LANGSDORFII Mez n. sp. foliis dense rosulatis utriculum haud efformantibus, omnibus aequaliter curvatis subsecundis, peranguste subtriangularibus, dense lepidotis; inflorescentia scapo brevi stipitata 20-30 flora, simplicissima quaquaverse dense spicata, folia superante; bracteis amplis, glabris, latissime ovatis breviterque acutis, sepala longe superantibus; sepalis aequaliter ad 2 mm. connatis; petalis acutiusculis, suberectis; stylo petala subaequante. »
-Type : leg. Langsdorff ; « in Brasiliae prov. Rio de Janeiro, loco ignoto » ; Holotypus herb. Petrop. (Saint-Petersbourg) [1]
+Type : leg. Langsdorff ; « in Brasiliae prov. Rio de Janeiro, loco ignoto » ; Holotypus herb. Petrop. (Saint-Petersbourg) 
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(aucune)</t>
         </is>
@@ -577,6 +593,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,9 +620,11 @@
           <t>Écologie et habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Biotype : plante vivace herbacée en rosette acaule monocarpique vivace par ses rejets latéraux ; épiphyte[1],[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Biotype : plante vivace herbacée en rosette acaule monocarpique vivace par ses rejets latéraux ; épiphyte,.
 Habitat : ?
 Altitude : ?</t>
         </is>
@@ -634,11 +654,13 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Amérique du sud :
  Brésil
-Rio de Janeiro[1],[2]</t>
+Rio de Janeiro,</t>
         </is>
       </c>
     </row>
@@ -667,6 +689,8 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
